--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -122,12 +122,6 @@
     <t>dataDecretoConferimento</t>
   </si>
   <si>
-    <t>Data registrazione alla Corte dei Conti</t>
-  </si>
-  <si>
-    <t>dataRegistrazioneDecreto</t>
-  </si>
-  <si>
     <t>Data notifica del decreto</t>
   </si>
   <si>
@@ -360,15 +354,6 @@
   </si>
   <si>
     <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Tipo Accertamento</t>
-  </si>
-  <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
-    <t>tipoAccertamento</t>
   </si>
 </sst>
 </file>
@@ -402,7 +387,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -410,34 +395,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -842,87 +828,87 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
@@ -931,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
@@ -942,7 +928,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
@@ -951,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -962,7 +948,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
@@ -971,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
@@ -982,16 +968,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
@@ -1002,7 +988,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>58</v>
@@ -1011,18 +997,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>60</v>
@@ -1031,18 +1017,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>62</v>
@@ -1051,38 +1037,38 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>66</v>
@@ -1091,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>67</v>
@@ -1102,7 +1088,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
@@ -1111,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>69</v>
@@ -1122,7 +1108,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
@@ -1131,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -1142,16 +1128,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>73</v>
@@ -1162,7 +1148,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>74</v>
@@ -1171,18 +1157,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>76</v>
@@ -1191,18 +1177,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>78</v>
@@ -1211,18 +1197,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>80</v>
@@ -1231,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>81</v>
@@ -1242,27 +1228,27 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>84</v>
@@ -1271,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>85</v>
@@ -1282,7 +1268,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
@@ -1291,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>87</v>
@@ -1302,67 +1288,67 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
@@ -1371,338 +1357,338 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>84</v>
@@ -1711,18 +1697,18 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>86</v>
@@ -1731,385 +1717,76 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585F03A3-987C-40F8-860F-D4176C14A58F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C11EEB-5B93-47C4-B404-760AB9CA8111}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E20A069-823F-4C29-BBE6-8AE62B7E279F}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -285,6 +291,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -412,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -424,6 +433,7 @@
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,225 +455,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -685,1105 +731,1273 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Titolo di soggiorno per cittadini extraUE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto notificato con marca da bollo da € 16</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Comunicazione prefettizia di concessione cittadinanza</t>
+  </si>
+  <si>
+    <t>Documento d’identità</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Titolo di soggiorno per cittadini extraUE</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto notificato con marca da bollo da € 16</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Comunicazione prefettizia di concessione cittadinanza</t>
-  </si>
-  <si>
-    <t>Documento d’identità</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -732,1272 +735,1272 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -296,7 +296,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -436,7 +436,7 @@
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>dataDecretoConferimento</t>
+  </si>
+  <si>
+    <t>Data registrazione alla Corte dei Conti</t>
+  </si>
+  <si>
+    <t>dataRegistrazioneDecreto</t>
   </si>
   <si>
     <t>Data notifica del decreto</t>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -861,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -870,7 +876,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -901,22 +907,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>28</v>
@@ -924,22 +930,22 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -947,22 +953,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
@@ -970,22 +976,22 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
@@ -1002,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>54</v>
@@ -1016,7 +1022,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
@@ -1025,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>56</v>
@@ -1039,7 +1045,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
@@ -1048,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>58</v>
@@ -1062,16 +1068,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>60</v>
@@ -1085,7 +1091,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
@@ -1094,13 +1100,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>28</v>
@@ -1108,7 +1114,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -1117,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
@@ -1131,7 +1137,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -1140,13 +1146,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>28</v>
@@ -1154,22 +1160,22 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1177,7 +1183,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
@@ -1186,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>70</v>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
@@ -1209,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>72</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>73</v>
@@ -1232,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>74</v>
@@ -1246,16 +1252,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>76</v>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
@@ -1278,13 +1284,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
@@ -1301,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
@@ -1324,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
@@ -1347,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>84</v>
@@ -1361,22 +1367,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1384,7 +1390,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
@@ -1393,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>88</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
@@ -1416,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>90</v>
@@ -1430,76 +1436,76 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>53</v>
@@ -1508,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>54</v>
@@ -1517,21 +1523,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>56</v>
@@ -1540,21 +1546,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>58</v>
@@ -1563,21 +1569,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>60</v>
@@ -1586,113 +1592,113 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>70</v>
@@ -1701,21 +1707,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>72</v>
@@ -1724,21 +1730,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>74</v>
@@ -1747,21 +1753,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>76</v>
@@ -1770,127 +1776,127 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>87</v>
@@ -1899,7 +1905,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>88</v>
@@ -1908,12 +1914,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>89</v>
@@ -1922,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>90</v>
@@ -1931,50 +1937,50 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -1982,24 +1988,47 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1189,7 +1195,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1198,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>28</v>
@@ -1281,7 +1287,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1313,7 +1319,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1336,7 +1342,7 @@
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1359,7 +1365,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1396,7 +1402,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1405,7 +1411,7 @@
         <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1459,283 +1465,283 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>105</v>
@@ -1744,21 +1750,21 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -1767,67 +1773,67 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>109</v>
@@ -1836,21 +1842,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>110</v>
@@ -1859,21 +1865,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>111</v>
@@ -1882,153 +1888,199 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,7 +308,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -448,7 +451,7 @@
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1997,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -2017,19 +2020,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2043,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
@@ -2063,10 +2066,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -2075,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2000,7 +1997,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -2020,19 +2017,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2040,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
@@ -2066,10 +2063,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -2078,7 +2075,7 @@
         <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -1997,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -2017,19 +2020,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2043,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
@@ -2063,10 +2066,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -2075,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -439,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1428,7 +1452,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -1451,7 +1475,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1460,7 +1484,7 @@
         <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>28</v>
@@ -1474,7 +1498,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1491,599 +1515,691 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -353,10 +359,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1038,7 +1041,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1130,7 +1133,7 @@
         <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1162,7 +1165,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
@@ -1185,7 +1188,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>28</v>
@@ -1208,7 +1211,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1245,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1254,7 +1257,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
@@ -1337,7 +1340,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1369,7 +1372,7 @@
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1392,7 +1395,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1415,7 +1418,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1461,7 +1464,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -1484,7 +1487,7 @@
         <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>28</v>
@@ -1507,7 +1510,7 @@
         <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>28</v>
@@ -1530,7 +1533,7 @@
         <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -1544,7 +1547,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>47</v>
@@ -1553,7 +1556,7 @@
         <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -1607,191 +1610,191 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>111</v>
@@ -1800,21 +1803,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>112</v>
@@ -1823,383 +1826,429 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1317,7 +1323,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1326,7 +1332,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
@@ -1340,7 +1346,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1372,7 +1378,7 @@
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1395,7 +1401,7 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1418,7 +1424,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1441,7 +1447,7 @@
         <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1487,7 +1493,7 @@
         <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>28</v>
@@ -1510,7 +1516,7 @@
         <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>28</v>
@@ -1533,7 +1539,7 @@
         <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -1556,7 +1562,7 @@
         <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -1570,7 +1576,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>47</v>
@@ -1579,7 +1585,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1633,375 +1639,375 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>118</v>
@@ -2010,21 +2016,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>119</v>
@@ -2033,21 +2039,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>120</v>
@@ -2056,21 +2062,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>121</v>
@@ -2079,21 +2085,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>122</v>
@@ -2102,153 +2108,199 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1987,7 +1993,7 @@
         <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -1996,7 +2002,7 @@
         <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>109</v>
@@ -2010,7 +2016,7 @@
         <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2019,10 +2025,10 @@
         <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>110</v>
@@ -2033,7 +2039,7 @@
         <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2042,10 +2048,10 @@
         <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>110</v>
@@ -2056,7 +2062,7 @@
         <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2065,10 +2071,10 @@
         <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>110</v>
@@ -2079,7 +2085,7 @@
         <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2088,10 +2094,10 @@
         <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>110</v>
@@ -2102,7 +2108,7 @@
         <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2111,10 +2117,10 @@
         <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>110</v>
@@ -2125,7 +2131,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2134,10 +2140,10 @@
         <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>110</v>
@@ -2148,7 +2154,7 @@
         <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2157,7 +2163,7 @@
         <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>109</v>
@@ -2171,19 +2177,19 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>110</v>
@@ -2194,7 +2200,7 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -2203,7 +2209,7 @@
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,7 +2223,7 @@
         <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -2226,7 +2232,7 @@
         <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,7 +2243,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>127</v>
@@ -2246,36 +2252,36 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2283,24 +2289,47 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,150 +149,219 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
+    <t>Sindaco</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Residenza non nota</t>
-  </si>
-  <si>
-    <t>flagIrreperibile</t>
-  </si>
-  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -317,24 +386,9 @@
     <t>nomeComuneAIRE</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -347,55 +401,10 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
     <t>Comprensione</t>
   </si>
   <si>
     <t>tipoImpedimento</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -478,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -984,7 +993,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>47</v>
@@ -993,10 +1002,10 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1004,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1013,13 +1022,13 @@
         <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1027,7 +1036,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1036,13 +1045,13 @@
         <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -1050,7 +1059,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1059,13 +1068,13 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1073,22 +1082,22 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -1096,22 +1105,22 @@
         <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1119,22 +1128,22 @@
         <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -1142,22 +1151,22 @@
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -1165,7 +1174,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1174,13 +1183,13 @@
         <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -1188,7 +1197,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1197,13 +1206,13 @@
         <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1211,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1220,13 +1229,13 @@
         <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -1234,7 +1243,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1243,13 +1252,13 @@
         <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
@@ -1257,7 +1266,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1266,13 +1275,13 @@
         <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
@@ -1280,22 +1289,22 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36">
@@ -1303,22 +1312,22 @@
         <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
@@ -1326,7 +1335,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1335,13 +1344,13 @@
         <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
@@ -1349,7 +1358,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1358,13 +1367,13 @@
         <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
@@ -1372,7 +1381,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1381,13 +1390,13 @@
         <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40">
@@ -1395,7 +1404,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1404,13 +1413,13 @@
         <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -1418,7 +1427,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1427,13 +1436,13 @@
         <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1450,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1450,13 +1459,13 @@
         <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -1464,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1473,13 +1482,13 @@
         <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1487,22 +1496,22 @@
         <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1510,22 +1519,22 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1533,7 +1542,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1542,33 +1551,33 @@
         <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -1576,22 +1585,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1599,22 +1608,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1622,19 +1631,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1654,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,668 +1677,1243 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G77" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="2" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,7 +149,16 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
-    <t>Sindaco</t>
+    <t>Officiante</t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -159,9 +168,6 @@
   </si>
   <si>
     <t>cognome</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Nome</t>
@@ -487,14 +493,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
@@ -996,16 +1002,16 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1013,13 +1019,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -1028,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -1039,10 +1045,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
@@ -1051,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1065,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -1074,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -1088,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>57</v>
@@ -1097,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1111,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
@@ -1120,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1134,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>61</v>
@@ -1143,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -1166,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -1180,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
@@ -1189,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -1203,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>67</v>
@@ -1212,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -1226,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>69</v>
@@ -1235,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -1249,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -1258,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -1272,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>73</v>
@@ -1281,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -1295,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -1304,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -1318,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>77</v>
@@ -1327,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -1341,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>79</v>
@@ -1350,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
@@ -1364,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>81</v>
@@ -1373,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -1387,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
@@ -1396,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -1410,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1419,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -1433,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>87</v>
@@ -1442,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1456,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1465,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -1479,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1488,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1499,10 +1505,10 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>93</v>
@@ -1511,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1525,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1534,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1545,10 +1551,10 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1557,50 +1563,50 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1608,22 +1614,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1631,22 +1637,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1654,16 +1660,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>56</v>
@@ -1686,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>57</v>
@@ -1700,16 +1706,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -1723,16 +1729,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -1746,16 +1752,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -1769,22 +1775,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1792,22 +1798,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1815,22 +1821,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>71</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1884,16 +1890,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>75</v>
@@ -1907,22 +1913,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -1930,22 +1936,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -1976,22 +1982,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2045,22 +2051,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2068,16 +2074,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2091,22 +2097,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>28</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>118</v>
@@ -2123,13 +2129,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>120</v>
@@ -2146,13 +2152,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>122</v>
@@ -2169,13 +2175,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>94</v>
@@ -2215,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>95</v>
@@ -2229,16 +2235,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>97</v>
@@ -2252,62 +2258,62 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>53</v>
@@ -2316,21 +2322,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
@@ -2339,12 +2345,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>56</v>
@@ -2353,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>57</v>
@@ -2362,12 +2368,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>58</v>
@@ -2376,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>59</v>
@@ -2385,12 +2391,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>60</v>
@@ -2399,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>61</v>
@@ -2408,21 +2414,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>63</v>
@@ -2431,12 +2437,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>64</v>
@@ -2445,21 +2451,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>66</v>
@@ -2468,21 +2474,21 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>68</v>
@@ -2491,21 +2497,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>70</v>
@@ -2514,44 +2520,44 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>74</v>
@@ -2560,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>75</v>
@@ -2569,58 +2575,58 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -2629,21 +2635,21 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2652,21 +2658,21 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>82</v>
@@ -2675,21 +2681,21 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>84</v>
@@ -2698,21 +2704,21 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
@@ -2721,21 +2727,21 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2744,21 +2750,21 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2767,44 +2773,44 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>94</v>
@@ -2813,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>95</v>
@@ -2822,12 +2828,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -2836,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>97</v>
@@ -2845,50 +2851,50 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2896,24 +2902,47 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,25 +149,19 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
-    <t>Officiante</t>
-  </si>
-  <si>
-    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
-  </si>
-  <si>
-    <t>officiante</t>
+    <t>Sindaco</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>opzionale</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.ufficialeStatoCivile</t>
-  </si>
-  <si>
-    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
@@ -493,14 +487,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
@@ -1002,16 +996,16 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1019,13 +1013,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -1034,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1045,10 +1039,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
@@ -1057,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -1080,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1094,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>57</v>
@@ -1103,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -1117,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
@@ -1126,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1140,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>61</v>
@@ -1149,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -1163,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -1172,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -1186,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
@@ -1195,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -1209,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>67</v>
@@ -1218,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>69</v>
@@ -1241,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -1255,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -1264,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
@@ -1278,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>73</v>
@@ -1287,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
@@ -1301,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -1310,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36">
@@ -1324,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>77</v>
@@ -1333,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>79</v>
@@ -1356,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
@@ -1370,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>81</v>
@@ -1379,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
@@ -1393,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
@@ -1402,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40">
@@ -1416,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1425,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -1439,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>87</v>
@@ -1448,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42">
@@ -1462,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1471,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -1485,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1494,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1505,10 +1499,10 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>93</v>
@@ -1517,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1531,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1540,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1551,10 +1545,10 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1563,50 +1557,50 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1614,22 +1608,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1637,22 +1631,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1660,16 +1654,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -1683,7 +1677,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>56</v>
@@ -1692,7 +1686,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>57</v>
@@ -1706,16 +1700,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -1729,16 +1723,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -1752,16 +1746,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -1775,22 +1769,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1798,22 +1792,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1821,22 +1815,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -1844,16 +1838,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>71</v>
@@ -1867,22 +1861,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1890,16 +1884,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>75</v>
@@ -1913,22 +1907,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -1936,22 +1930,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -1959,22 +1953,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -1982,22 +1976,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2005,22 +1999,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2028,22 +2022,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2051,22 +2045,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2074,16 +2068,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2097,22 +2091,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>28</v>
@@ -2120,7 +2114,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>118</v>
@@ -2129,13 +2123,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2143,7 +2137,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>120</v>
@@ -2152,13 +2146,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2166,7 +2160,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>122</v>
@@ -2175,13 +2169,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2189,22 +2183,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2212,7 +2206,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>94</v>
@@ -2221,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>95</v>
@@ -2235,16 +2229,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>97</v>
@@ -2258,62 +2252,62 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>53</v>
@@ -2322,21 +2316,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
@@ -2345,12 +2339,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>56</v>
@@ -2359,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>57</v>
@@ -2368,12 +2362,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>58</v>
@@ -2382,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>59</v>
@@ -2391,12 +2385,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>60</v>
@@ -2405,7 +2399,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>61</v>
@@ -2414,21 +2408,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>63</v>
@@ -2437,12 +2431,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>64</v>
@@ -2451,21 +2445,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>66</v>
@@ -2474,21 +2468,21 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>68</v>
@@ -2497,21 +2491,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>70</v>
@@ -2520,44 +2514,44 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>74</v>
@@ -2566,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>75</v>
@@ -2575,58 +2569,58 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -2635,21 +2629,21 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2658,21 +2652,21 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>82</v>
@@ -2681,21 +2675,21 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>84</v>
@@ -2704,21 +2698,21 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
@@ -2727,21 +2721,21 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2750,21 +2744,21 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2773,44 +2767,44 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>94</v>
@@ -2819,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>95</v>
@@ -2828,12 +2822,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -2842,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>97</v>
@@ -2851,50 +2845,50 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2902,47 +2896,24 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,7 +149,16 @@
     <t>estremiDecretoConferimento</t>
   </si>
   <si>
-    <t>Sindaco</t>
+    <t xml:space="preserve">Officiante </t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -159,9 +168,6 @@
   </si>
   <si>
     <t>cognome</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Nome</t>
@@ -487,14 +493,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.421875" customWidth="true" bestFit="true"/>
@@ -996,16 +1002,16 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1013,13 +1019,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -1028,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -1039,10 +1045,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
@@ -1051,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1065,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -1074,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -1088,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>57</v>
@@ -1097,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1111,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
@@ -1120,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1134,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>61</v>
@@ -1143,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -1166,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -1180,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
@@ -1189,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -1203,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>67</v>
@@ -1212,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -1226,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>69</v>
@@ -1235,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -1249,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -1258,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -1272,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>73</v>
@@ -1281,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -1295,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -1304,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -1318,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>77</v>
@@ -1327,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -1341,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>79</v>
@@ -1350,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
@@ -1364,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>81</v>
@@ -1373,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -1387,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
@@ -1396,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -1410,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1419,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -1433,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>87</v>
@@ -1442,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1456,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1465,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -1479,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1488,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1499,10 +1505,10 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>93</v>
@@ -1511,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1525,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1534,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1545,10 +1551,10 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1557,50 +1563,50 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1608,22 +1614,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1631,22 +1637,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1654,16 +1660,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>56</v>
@@ -1686,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>57</v>
@@ -1700,16 +1706,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -1723,16 +1729,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -1746,16 +1752,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -1769,22 +1775,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1792,22 +1798,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1815,22 +1821,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>71</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1884,16 +1890,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>75</v>
@@ -1907,22 +1913,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -1930,22 +1936,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -1976,22 +1982,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2045,22 +2051,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2068,16 +2074,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2091,22 +2097,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>28</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>118</v>
@@ -2123,13 +2129,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>120</v>
@@ -2146,13 +2152,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>122</v>
@@ -2169,13 +2175,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>94</v>
@@ -2215,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>95</v>
@@ -2229,16 +2235,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>97</v>
@@ -2252,62 +2258,62 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>53</v>
@@ -2316,21 +2322,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
@@ -2339,12 +2345,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>56</v>
@@ -2353,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>57</v>
@@ -2362,12 +2368,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>58</v>
@@ -2376,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>59</v>
@@ -2385,12 +2391,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>60</v>
@@ -2399,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>61</v>
@@ -2408,21 +2414,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>63</v>
@@ -2431,12 +2437,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>64</v>
@@ -2445,21 +2451,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>66</v>
@@ -2468,21 +2474,21 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>68</v>
@@ -2491,21 +2497,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>70</v>
@@ -2514,44 +2520,44 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>74</v>
@@ -2560,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>75</v>
@@ -2569,58 +2575,58 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -2629,21 +2635,21 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2652,21 +2658,21 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>82</v>
@@ -2675,21 +2681,21 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>84</v>
@@ -2698,21 +2704,21 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
@@ -2721,21 +2727,21 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2744,21 +2750,21 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2767,44 +2773,44 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>94</v>
@@ -2813,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>95</v>
@@ -2822,12 +2828,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -2836,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>97</v>
@@ -2845,50 +2851,50 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2896,24 +2902,47 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -2563,7 +2563,7 @@
         <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>128</v>
@@ -2586,7 +2586,7 @@
         <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>128</v>
@@ -2595,7 +2595,7 @@
         <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>130</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -493,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1528,7 +1540,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>50</v>
@@ -1551,7 +1563,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
@@ -1574,7 +1586,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>50</v>
@@ -1591,65 +1603,65 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -1660,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,22 +1695,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -1706,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1775,22 +1787,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1798,22 +1810,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1821,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1844,22 +1856,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -1867,22 +1879,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1890,22 +1902,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>28</v>
@@ -1913,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -1959,22 +1971,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -1982,22 +1994,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2005,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -2051,7 +2063,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>115</v>
@@ -2060,10 +2072,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2074,7 +2086,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>116</v>
@@ -2083,10 +2095,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
@@ -2097,7 +2109,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>117</v>
@@ -2106,13 +2118,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>28</v>
@@ -2120,7 +2132,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>118</v>
@@ -2129,13 +2141,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2143,22 +2155,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2166,22 +2178,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2189,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
@@ -2212,19 +2224,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2235,22 +2247,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2258,19 +2270,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2281,668 +2293,806 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="G106" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_043.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,19 +50,16 @@
     <t>Decreto notificato con marca da bollo da € 16</t>
   </si>
   <si>
+    <t>Comunicazione prefettizia di concessione cittadinanza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Comunicazione prefettizia di concessione cittadinanza</t>
-  </si>
-  <si>
-    <t>Documento d’identità</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>81</t>
   </si>
   <si>
     <t>194</t>
@@ -505,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -574,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -594,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -614,13 +611,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -637,13 +634,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -683,7 +680,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -729,7 +726,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -752,7 +749,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -774,1112 +771,1112 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
@@ -1888,21 +1885,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -1911,21 +1908,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
@@ -1934,136 +1931,136 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>115</v>
@@ -2072,21 +2069,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>116</v>
@@ -2095,21 +2092,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>117</v>
@@ -2118,21 +2115,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>118</v>
@@ -2141,21 +2138,21 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>119</v>
@@ -2164,21 +2161,21 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>120</v>
@@ -2187,21 +2184,21 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>121</v>
@@ -2210,890 +2207,867 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
